--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,14 +345,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12334</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,12 +376,44 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 123</t>
+          <t xml:space="preserve"> 123  </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>12334</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123344</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>malheirogoncalo9@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>e497390dcf27710d3fbeaf99f54f65f9aec24bfb691b92c71bb2f9038a350d14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>121</t>
         </is>
       </c>
     </row>
